--- a/src/main/resources/65-microservice_arch_springcloud/bookstore-microservices-library-infrastructure_structure.xlsx
+++ b/src/main/resources/65-microservice_arch_springcloud/bookstore-microservices-library-infrastructure_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="263">
   <si>
     <t>类名</t>
   </si>
@@ -214,7 +214,7 @@
     <t>com.github.fenixsoft.bookstore.infrastructure.security.OAuthClientDetailsService</t>
   </si>
   <si>
-    <t>lambda$init$0(org.springframework.security.oauth2.config.annotation.builders.InMemoryClientDetailsServiceBuilder)</t>
+    <t>lambda$init$0(org.springframework.security.oauth2.config.annotation.builders.InMemoryClientDetailsServiceBuilder,com.github.fenixsoft.bookstore.infrastructure.security.OAuthClientDetailsService$Client)</t>
   </si>
   <si>
     <t>loadClientByClientId(java.lang.String)</t>
@@ -229,7 +229,7 @@
     <t>com.github.fenixsoft.bookstore.infrastructure.security.RSA256PublicJWTAccessToken</t>
   </si>
   <si>
-    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.common.OAuth2AccessToken</t>
@@ -268,7 +268,7 @@
     <t>javax.ws.rs.core.Response</t>
   </si>
   <si>
-    <t>send(javax.ws.rs.core.Response$Status)</t>
+    <t>send(javax.ws.rs.core.Response$Status,java.lang.String)</t>
   </si>
   <si>
     <t>success(java.lang.String)</t>
@@ -8032,7 +8032,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8060,13 +8060,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>256</v>
@@ -8077,13 +8077,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>256</v>
@@ -8094,13 +8094,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>256</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -8125,16 +8125,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>256</v>
@@ -8142,16 +8142,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>256</v>
@@ -8159,16 +8159,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>256</v>
@@ -8176,16 +8176,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>256</v>
@@ -8193,16 +8193,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>256</v>
@@ -8210,18 +8210,103 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>169</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>174</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>169</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
         <v>173</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16" t="s">
         <v>256</v>
       </c>
     </row>
